--- a/paper/data/scalobility/8node-scalobility-20201126.xlsx
+++ b/paper/data/scalobility/8node-scalobility-20201126.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DABF08-51A7-D246-90E8-EC97DD1C8C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492FADDA-E52A-584F-8D95-8F312B4FF72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
@@ -4933,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5031,35 +5031,35 @@
         <v>50</v>
       </c>
       <c r="M2" s="2">
-        <f>B2/B2</f>
+        <f>78.8162499997/B2</f>
         <v>1</v>
       </c>
       <c r="N2" s="2">
-        <f>B2/C2</f>
+        <f>78.8162499997/C2</f>
         <v>0.98320598783223689</v>
       </c>
       <c r="O2" s="2">
-        <f>B2/D2</f>
+        <f t="shared" ref="O2:T2" si="0">78.8162499997/D2</f>
         <v>1.3362649938399609</v>
       </c>
       <c r="P2" s="2">
-        <f>B2/E2</f>
+        <f t="shared" si="0"/>
         <v>10.627507163598592</v>
       </c>
       <c r="Q2" s="2">
-        <f>B2/F2</f>
+        <f>78.8162499997/F2</f>
         <v>6.0809142635535789</v>
       </c>
       <c r="R2" s="2">
-        <f>B2/G2</f>
+        <f t="shared" si="0"/>
         <v>6.7184869474024982</v>
       </c>
-      <c r="S2">
-        <f>B2/H2</f>
+      <c r="S2" s="2">
+        <f>78.8162499997/H2</f>
         <v>7.7451173070460584</v>
       </c>
-      <c r="T2">
-        <f>B2/I2</f>
+      <c r="T2" s="2">
+        <f>78.8162499997/I2</f>
         <v>8.0199694732798186</v>
       </c>
     </row>
@@ -5095,36 +5095,36 @@
         <v>51</v>
       </c>
       <c r="M3" s="2">
-        <f>B2/B3</f>
+        <f t="shared" ref="M3:M9" si="1">78.8162499997/B3</f>
         <v>1.8771360523983431</v>
       </c>
       <c r="N3" s="2">
-        <f>B3/C3</f>
-        <v>1.948149866613601</v>
+        <f t="shared" ref="N3:N9" si="2">78.8162499997/C3</f>
+        <v>3.6569423500954135</v>
       </c>
       <c r="O3" s="2">
-        <f>B3/D3</f>
-        <v>3.6678314041551809</v>
+        <f t="shared" ref="O3:O9" si="3">78.8162499997/D3</f>
+        <v>6.8850185628585283</v>
       </c>
       <c r="P3" s="2">
-        <f>B3/E3</f>
-        <v>5.6142403477900897</v>
+        <f t="shared" ref="P3:P9" si="4">78.8162499997/E3</f>
+        <v>10.53869296366619</v>
       </c>
       <c r="Q3" s="2">
-        <f>B3/F3</f>
-        <v>6.6939019524785373</v>
+        <f t="shared" ref="Q3:Q9" si="5">78.8162499997/F3</f>
+        <v>12.565364686217123</v>
       </c>
       <c r="R3" s="2">
-        <f>B3/G3</f>
-        <v>9.2254875033486385</v>
-      </c>
-      <c r="S3">
-        <f>B3/H3</f>
-        <v>23.571929824449125</v>
-      </c>
-      <c r="T3">
-        <f>B3/I3</f>
-        <v>47.176966334369382</v>
+        <f t="shared" ref="R3:R9" si="6">78.8162499997/G3</f>
+        <v>17.31749519348611</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S9" si="7">78.8162499997/H3</f>
+        <v>44.247719298077193</v>
+      </c>
+      <c r="T3" s="2">
+        <f>78.8162499997/I3</f>
+        <v>88.557584349027678</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5159,36 +5159,36 @@
         <v>52</v>
       </c>
       <c r="M4" s="2">
-        <f>B2/B4</f>
+        <f t="shared" si="1"/>
         <v>1.0650844594554054</v>
       </c>
       <c r="N4" s="2">
-        <f>B4/C4</f>
-        <v>1.4711364031708953</v>
+        <f t="shared" si="2"/>
+        <v>1.5668845207564424</v>
       </c>
       <c r="O4" s="2">
-        <f>B4/D4</f>
-        <v>1.9793373232137486</v>
+        <f t="shared" si="3"/>
+        <v>2.1081614229750247</v>
       </c>
       <c r="P4" s="2">
-        <f>B4/E4</f>
-        <v>2.3089824095743361</v>
+        <f t="shared" si="4"/>
+        <v>2.4592612815935215</v>
       </c>
       <c r="Q4" s="2">
-        <f>B4/F4</f>
-        <v>3.0258113979291656</v>
+        <f t="shared" si="5"/>
+        <v>3.2227446971773905</v>
       </c>
       <c r="R4" s="2">
-        <f>B4/G4</f>
-        <v>3.2752420469537986</v>
-      </c>
-      <c r="S4">
-        <f>B4/H4</f>
-        <v>3.2669278737232297</v>
-      </c>
-      <c r="T4">
-        <f>B4/I4</f>
-        <v>2.5356576861862954</v>
+        <f t="shared" si="6"/>
+        <v>3.4884094051654024</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="7"/>
+        <v>3.4795541084643036</v>
+      </c>
+      <c r="T4" s="2">
+        <f>78.8162499997/I4</f>
+        <v>2.7006895960556747</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -5223,36 +5223,36 @@
         <v>53</v>
       </c>
       <c r="M5" s="2">
-        <f>B2/B5</f>
+        <f t="shared" si="1"/>
         <v>1.3735840013913796</v>
       </c>
       <c r="N5" s="2">
-        <f>B5/C5</f>
-        <v>0.9386169386183737</v>
+        <f t="shared" si="2"/>
+        <v>1.2892692103211527</v>
       </c>
       <c r="O5" s="2">
-        <f>B5/D5</f>
-        <v>0.99331356977472718</v>
+        <f t="shared" si="3"/>
+        <v>1.3643996278075252</v>
       </c>
       <c r="P5" s="2">
-        <f>B5/E5</f>
-        <v>0.96168269330999789</v>
+        <f t="shared" si="4"/>
+        <v>1.3209519619455858</v>
       </c>
       <c r="Q5" s="2">
-        <f>B5/F5</f>
-        <v>1.0874117591280856</v>
+        <f t="shared" si="5"/>
+        <v>1.4936513952631949</v>
       </c>
       <c r="R5" s="2">
-        <f>B5/G5</f>
-        <v>1.3039056952085126</v>
-      </c>
-      <c r="S5">
-        <f>B5/H5</f>
-        <v>1.5195974576164215</v>
-      </c>
-      <c r="T5">
-        <f>B5/I5</f>
-        <v>1.5152835544885968</v>
+        <f t="shared" si="6"/>
+        <v>1.7910240022615174</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0872947563369317</v>
+      </c>
+      <c r="T5" s="2">
+        <f>78.8162499997/I5</f>
+        <v>2.0813692480169994</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5287,36 +5287,36 @@
         <v>54</v>
       </c>
       <c r="M6" s="2">
-        <f>B2/B6</f>
+        <f t="shared" si="1"/>
         <v>2.5113713306950256</v>
       </c>
       <c r="N6" s="2">
-        <f>B6/C6</f>
-        <v>2.0794268676770504</v>
+        <f t="shared" si="2"/>
+        <v>5.222213019761103</v>
       </c>
       <c r="O6" s="2">
-        <f>B6/D6</f>
-        <v>4.0482102547878611</v>
+        <f t="shared" si="3"/>
+        <v>10.166559174499838</v>
       </c>
       <c r="P6" s="2">
-        <f>B6/E6</f>
-        <v>7.8190594822673471</v>
+        <f t="shared" si="4"/>
+        <v>19.636561816765305</v>
       </c>
       <c r="Q6" s="2">
-        <f>B6/F6</f>
-        <v>12.578657314074688</v>
+        <f t="shared" si="5"/>
+        <v>31.589679357204464</v>
       </c>
       <c r="R6" s="2">
-        <f>B6/G6</f>
-        <v>16.114890883765046</v>
-      </c>
-      <c r="S6">
-        <f>B6/H6</f>
-        <v>19.769291339703457</v>
-      </c>
-      <c r="T6">
-        <f>B6/I6</f>
-        <v>28.178451177945167</v>
+        <f t="shared" si="6"/>
+        <v>40.470474962766154</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="7"/>
+        <v>49.648031498688717</v>
+      </c>
+      <c r="T6" s="2">
+        <f>78.8162499997/I6</f>
+        <v>70.766554431680959</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -5351,36 +5351,36 @@
         <v>55</v>
       </c>
       <c r="M7" s="2">
-        <f>B6/B7</f>
-        <v>0.39871367317821016</v>
+        <f t="shared" si="1"/>
+        <v>1.0013180879758632</v>
       </c>
       <c r="N7" s="2">
-        <f>B7/C7</f>
-        <v>0.97974234503358193</v>
+        <f t="shared" si="2"/>
+        <v>0.98103373163801477</v>
       </c>
       <c r="O7" s="2">
-        <f>B7/D7</f>
-        <v>1.3287613420580842</v>
+        <f t="shared" si="3"/>
+        <v>1.3305127664058427</v>
       </c>
       <c r="P7" s="2">
-        <f>B7/E7</f>
-        <v>10.629642133967041</v>
+        <f t="shared" si="4"/>
+        <v>10.64365293745155</v>
       </c>
       <c r="Q7" s="2">
-        <f>B7/F7</f>
-        <v>6.0822949869055751</v>
+        <f t="shared" si="5"/>
+        <v>6.0903119867934681</v>
       </c>
       <c r="R7" s="2">
-        <f>B7/G7</f>
-        <v>6.7376417718147863</v>
-      </c>
-      <c r="S7">
-        <f>B7/H7</f>
-        <v>7.6512758197141428</v>
-      </c>
-      <c r="T7">
-        <f>B7/I7</f>
-        <v>7.946744068433504</v>
+        <f t="shared" si="6"/>
+        <v>6.7465225764198893</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="7"/>
+        <v>7.6613608743721207</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T3:T9" si="8">78.8162499997/I7</f>
+        <v>7.9572185762373682</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5415,36 +5415,36 @@
         <v>56</v>
       </c>
       <c r="M8" s="2">
-        <f>B6/B8</f>
-        <v>0.31436799599386839</v>
+        <f t="shared" si="1"/>
+        <v>0.7894947724270498</v>
       </c>
       <c r="N8" s="2">
-        <f>B8/C8</f>
-        <v>1.5171057880524825</v>
+        <f t="shared" si="2"/>
+        <v>1.1977470888862547</v>
       </c>
       <c r="O8" s="2">
-        <f>B8/D8</f>
-        <v>2.6275703240681101</v>
+        <f t="shared" si="3"/>
+        <v>2.074453035036222</v>
       </c>
       <c r="P8" s="2">
-        <f>B8/E8</f>
-        <v>4.3771237531234153</v>
+        <f t="shared" si="4"/>
+        <v>3.4557163213572042</v>
       </c>
       <c r="Q8" s="2">
-        <f>B8/F8</f>
-        <v>6.0257280821127246</v>
+        <f t="shared" si="5"/>
+        <v>4.7572808208948683</v>
       </c>
       <c r="R8" s="2">
-        <f>B8/G8</f>
-        <v>7.4230876475360157</v>
-      </c>
-      <c r="S8">
-        <f>B8/H8</f>
-        <v>8.6593299363125862</v>
-      </c>
-      <c r="T8">
-        <f>B8/I8</f>
-        <v>9.4180424522782236</v>
+        <f t="shared" si="6"/>
+        <v>5.8604888929974903</v>
+      </c>
+      <c r="S8" s="2">
+        <f>78.8162499997/H8</f>
+        <v>6.8364957174398437</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="8"/>
+        <v>7.4354952825696898</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -5479,36 +5479,36 @@
         <v>72</v>
       </c>
       <c r="M9" s="2">
-        <f>B6/B9</f>
-        <v>0.86659533342776907</v>
+        <f t="shared" si="1"/>
+        <v>2.1763426756845958</v>
       </c>
       <c r="N9" s="2">
-        <f>B9/C9</f>
-        <v>1.876789531668746</v>
+        <f t="shared" si="2"/>
+        <v>4.0845371510487984</v>
       </c>
       <c r="O9" s="2">
-        <f>B9/D9</f>
-        <v>3.002279792737824</v>
+        <f t="shared" si="3"/>
+        <v>6.533989637280829</v>
       </c>
       <c r="P9" s="2">
-        <f>B9/E9</f>
-        <v>6.1148163783359939</v>
+        <f t="shared" si="4"/>
+        <v>13.307935838147747</v>
       </c>
       <c r="Q9" s="2">
-        <f>B9/F9</f>
-        <v>13.4129629643169</v>
+        <f t="shared" si="5"/>
+        <v>29.191203706619827</v>
       </c>
       <c r="R9" s="2">
-        <f>B9/G9</f>
-        <v>21.98179059227877</v>
-      </c>
-      <c r="S9">
-        <f>B9/H9</f>
-        <v>28.45972495170011</v>
-      </c>
-      <c r="T9">
-        <f>B9/I9</f>
-        <v>29.654042990116068</v>
+        <f>78.8162499997/G9</f>
+        <v>47.839908953938455</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="7"/>
+        <v>61.938113950630672</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="8"/>
+        <v>64.537359265975226</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -5647,35 +5647,35 @@
         <v>50</v>
       </c>
       <c r="M14" s="2">
-        <f>B14/B14</f>
+        <f>7/B14</f>
         <v>1</v>
       </c>
       <c r="N14" s="2">
-        <f>B14/C14</f>
+        <f>7/C14</f>
         <v>1.9886363638905926</v>
       </c>
       <c r="O14" s="2">
-        <f>B14/D14</f>
+        <f t="shared" ref="O14:T14" si="9">7/D14</f>
         <v>3.9436619720309465</v>
       </c>
       <c r="P14" s="2">
-        <f>B14/E14</f>
+        <f t="shared" si="9"/>
         <v>7.681755830848128</v>
       </c>
       <c r="Q14" s="2">
-        <f>B14/F14</f>
+        <f t="shared" si="9"/>
         <v>14.893617029547308</v>
       </c>
       <c r="R14" s="2">
-        <f>B14/G14</f>
+        <f t="shared" si="9"/>
         <v>28.426395902492722</v>
       </c>
-      <c r="S14">
-        <f>B14/H14</f>
+      <c r="S14" s="2">
+        <f>7/H14</f>
         <v>45.161290246534861</v>
       </c>
-      <c r="T14">
-        <f>B14/I14</f>
+      <c r="T14" s="2">
+        <f>7/I14</f>
         <v>47.457627130548694</v>
       </c>
     </row>
@@ -5711,36 +5711,36 @@
         <v>51</v>
       </c>
       <c r="M15" s="2">
-        <f>B15/B15</f>
-        <v>1</v>
+        <f t="shared" ref="M15:M21" si="10">7/B15</f>
+        <v>0.99431818181253229</v>
       </c>
       <c r="N15" s="2">
-        <f>B15/C15</f>
-        <v>1.9830985916667012</v>
+        <f t="shared" ref="N15:N21" si="11">7/C15</f>
+        <v>1.9718309860210277</v>
       </c>
       <c r="O15" s="2">
-        <f>B15/D15</f>
-        <v>3.8975778559018095</v>
+        <f t="shared" ref="O15:O21" si="12">7/D15</f>
+        <v>3.875432527153075</v>
       </c>
       <c r="P15" s="2">
-        <f>B15/E15</f>
-        <v>7.4993342194435542</v>
+        <f t="shared" ref="P15:P21" si="13">7/E15</f>
+        <v>7.4567243658816205</v>
       </c>
       <c r="Q15" s="2">
-        <f>B15/F15</f>
-        <v>14.330788805232039</v>
+        <f t="shared" ref="Q15:Q21" si="14">7/F15</f>
+        <v>14.249363868757714</v>
       </c>
       <c r="R15" s="2">
-        <f>B15/G15</f>
-        <v>21.172932329737488</v>
-      </c>
-      <c r="S15">
-        <f>B15/H15</f>
-        <v>30.11764704224473</v>
-      </c>
-      <c r="T15">
-        <f>B15/I15</f>
-        <v>33.523809529906572</v>
+        <f t="shared" ref="R15:R21" si="15">7/G15</f>
+        <v>21.052631577744361</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" ref="S15:S21" si="16">7/H15</f>
+        <v>29.946524047516373</v>
+      </c>
+      <c r="T15" s="2">
+        <f>7/I15</f>
+        <v>33.333333339206348</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -5775,36 +5775,36 @@
         <v>52</v>
       </c>
       <c r="M16" s="2">
-        <f>B16/B16</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.9992862241413164</v>
       </c>
       <c r="N16" s="2">
-        <f>B16/C16</f>
-        <v>1.985825655352101</v>
+        <f t="shared" si="11"/>
+        <v>1.984408220939756</v>
       </c>
       <c r="O16" s="2">
-        <f>B16/D16</f>
-        <v>3.932631577847951</v>
+        <f t="shared" si="12"/>
+        <v>3.9298245603665865</v>
       </c>
       <c r="P16" s="2">
-        <f>B16/E16</f>
-        <v>7.6557377083788589</v>
+        <f t="shared" si="13"/>
+        <v>7.650273227622205</v>
       </c>
       <c r="Q16" s="2">
-        <f>B16/F16</f>
-        <v>14.825396820488923</v>
+        <f t="shared" si="14"/>
+        <v>14.814814810143053</v>
       </c>
       <c r="R16" s="2">
-        <f>B16/G16</f>
-        <v>28.019999947330717</v>
-      </c>
-      <c r="S16">
-        <f>B16/H16</f>
-        <v>40.608695682139889</v>
-      </c>
-      <c r="T16">
-        <f>B16/I16</f>
-        <v>52.867924408568747</v>
+        <f t="shared" si="15"/>
+        <v>27.999999947808</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="16"/>
+        <v>40.579710175509348</v>
+      </c>
+      <c r="T16" s="2">
+        <f>7/I16</f>
+        <v>52.830188560427203</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -5839,36 +5839,36 @@
         <v>53</v>
       </c>
       <c r="M17" s="2">
-        <f>B17/B17</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.99431818174756259</v>
       </c>
       <c r="N17" s="2">
-        <f>B17/C17</f>
-        <v>1.9782226910310408</v>
+        <f t="shared" si="11"/>
+        <v>1.9669827892377547</v>
       </c>
       <c r="O17" s="2">
-        <f>B17/D17</f>
-        <v>3.8787878791915853</v>
+        <f t="shared" si="12"/>
+        <v>3.856749311422262</v>
       </c>
       <c r="P17" s="2">
-        <f>B17/E17</f>
-        <v>7.6108108090557662</v>
+        <f t="shared" si="13"/>
+        <v>7.5675675652850254</v>
       </c>
       <c r="Q17" s="2">
-        <f>B17/F17</f>
-        <v>14.515463908530556</v>
+        <f t="shared" si="14"/>
+        <v>14.43298968075247</v>
       </c>
       <c r="R17" s="2">
-        <f>B17/G17</f>
-        <v>27.607843151341488</v>
-      </c>
-      <c r="S17">
-        <f>B17/H17</f>
-        <v>37.546666669333334</v>
-      </c>
-      <c r="T17">
-        <f>B17/I17</f>
-        <v>47.728813574684516</v>
+        <f t="shared" si="15"/>
+        <v>27.450980404213766</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="16"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="T17" s="2">
+        <f>7/I17</f>
+        <v>47.457627130548694</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -5903,36 +5903,36 @@
         <v>54</v>
       </c>
       <c r="M18" s="2">
-        <f>B18/B18</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.99982146042492925</v>
       </c>
       <c r="N18" s="2">
-        <f>B18/C18</f>
-        <v>1.9889914770583192</v>
+        <f t="shared" si="11"/>
+        <v>1.988636363365186</v>
       </c>
       <c r="O18" s="2">
-        <f>B18/D18</f>
-        <v>3.9415904291436594</v>
+        <f t="shared" si="12"/>
+        <v>3.9408866992633373</v>
       </c>
       <c r="P18" s="2">
-        <f>B18/E18</f>
-        <v>7.6936813176413645</v>
+        <f t="shared" si="13"/>
+        <v>7.6923076910481827</v>
       </c>
       <c r="Q18" s="2">
-        <f>B18/F18</f>
-        <v>14.778364105474319</v>
+        <f t="shared" si="14"/>
+        <v>14.775725582626688</v>
       </c>
       <c r="R18" s="2">
-        <f>B18/G18</f>
-        <v>28.431472045430347</v>
-      </c>
-      <c r="S18">
-        <f>B18/H18</f>
-        <v>44.807999867644625</v>
-      </c>
-      <c r="T18">
-        <f>B18/I18</f>
-        <v>51.385320933803754</v>
+        <f t="shared" si="15"/>
+        <v>28.426395902492722</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="16"/>
+        <v>44.799999866388482</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" ref="T15:T21" si="17">7/I18</f>
+        <v>51.376146620439357</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -5967,35 +5967,35 @@
         <v>55</v>
       </c>
       <c r="M19" s="2">
-        <f>B19/B19</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N19" s="2">
-        <f>B19/C19</f>
+        <f t="shared" si="11"/>
         <v>1.9893428062360168</v>
       </c>
       <c r="O19" s="2">
-        <f>B19/D19</f>
+        <f t="shared" si="12"/>
         <v>3.9408867002839183</v>
       </c>
       <c r="P19" s="2">
-        <f>B19/E19</f>
+        <f t="shared" si="13"/>
         <v>7.6923076910481827</v>
       </c>
       <c r="Q19" s="2">
-        <f>B19/F19</f>
+        <f t="shared" si="14"/>
         <v>14.814814810143053</v>
       </c>
       <c r="R19" s="2">
-        <f>B19/G19</f>
+        <f t="shared" si="15"/>
         <v>28.140703488061412</v>
       </c>
-      <c r="S19">
-        <f>B19/H19</f>
+      <c r="S19" s="2">
+        <f t="shared" si="16"/>
         <v>42.424242414729108</v>
       </c>
-      <c r="T19">
-        <f>B19/I19</f>
+      <c r="T19" s="2">
+        <f t="shared" si="17"/>
         <v>49.557522006359157</v>
       </c>
     </row>
@@ -6031,36 +6031,36 @@
         <v>56</v>
       </c>
       <c r="M20" s="2">
-        <f>B20/B20</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0.99946457259608479</v>
       </c>
       <c r="N20" s="2">
-        <f>B20/C20</f>
-        <v>1.9882895670005769</v>
+        <f t="shared" si="11"/>
+        <v>1.9872249822794859</v>
       </c>
       <c r="O20" s="2">
-        <f>B20/D20</f>
-        <v>3.9402250353142243</v>
+        <f t="shared" si="12"/>
+        <v>3.9381153308527241</v>
       </c>
       <c r="P20" s="2">
-        <f>B20/E20</f>
-        <v>7.6648426823175857</v>
+        <f t="shared" si="13"/>
+        <v>7.6607387154987734</v>
       </c>
       <c r="Q20" s="2">
-        <f>B20/F20</f>
-        <v>14.70603674992255</v>
+        <f t="shared" si="14"/>
+        <v>14.698162734843656</v>
       </c>
       <c r="R20" s="2">
-        <f>B20/G20</f>
-        <v>28.01499999872</v>
-      </c>
-      <c r="S20">
-        <f>B20/H20</f>
-        <v>39.737588646382896</v>
-      </c>
-      <c r="T20">
-        <f>B20/I20</f>
-        <v>49.149122939630224</v>
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="16"/>
+        <v>39.716312052456111</v>
+      </c>
+      <c r="T20" s="2">
+        <f>7/I20</f>
+        <v>49.122807152329948</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -6095,35 +6095,35 @@
         <v>72</v>
       </c>
       <c r="M21" s="2">
-        <f>B21/B21</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N21" s="2">
-        <f>B21/C21</f>
+        <f t="shared" si="11"/>
         <v>1.9886363638905926</v>
       </c>
       <c r="O21" s="2">
-        <f>B21/D21</f>
+        <f t="shared" si="12"/>
         <v>3.9436619720309465</v>
       </c>
       <c r="P21" s="2">
-        <f>B21/E21</f>
+        <f t="shared" si="13"/>
         <v>7.681755830848128</v>
       </c>
       <c r="Q21" s="2">
-        <f>B21/F21</f>
+        <f t="shared" si="14"/>
         <v>14.814814795532039</v>
       </c>
       <c r="R21" s="2">
-        <f>B21/G21</f>
+        <f t="shared" si="15"/>
         <v>28.282828276428933</v>
       </c>
-      <c r="S21">
-        <f>B21/H21</f>
+      <c r="S21" s="2">
+        <f t="shared" si="16"/>
         <v>39.716312052456111</v>
       </c>
-      <c r="T21">
-        <f>B21/I21</f>
+      <c r="T21" s="2">
+        <f t="shared" si="17"/>
         <v>50.450450477720963</v>
       </c>
     </row>
@@ -6263,36 +6263,36 @@
         <v>50</v>
       </c>
       <c r="M26" s="2">
-        <f>B26/B26</f>
-        <v>1</v>
+        <f>69.81625/B26</f>
+        <v>0.9999999999914061</v>
       </c>
       <c r="N26" s="2">
-        <f>B26/C26</f>
-        <v>1.9966753655424969</v>
+        <f>69.81625/C26</f>
+        <v>1.9966753655253375</v>
       </c>
       <c r="O26" s="2">
-        <f>B26/D26</f>
-        <v>3.9838088446784754</v>
+        <f t="shared" ref="O26:T26" si="18">69.81625/D26</f>
+        <v>3.9838088446442388</v>
       </c>
       <c r="P26" s="2">
-        <f>B26/E26</f>
-        <v>7.9619387025939439</v>
+        <f t="shared" si="18"/>
+        <v>7.9619387025255195</v>
       </c>
       <c r="Q26" s="2">
-        <f>B26/F26</f>
-        <v>15.853817768867163</v>
+        <f t="shared" si="18"/>
+        <v>15.853817768730917</v>
       </c>
       <c r="R26" s="2">
-        <f>B26/G26</f>
-        <v>31.448761258698305</v>
-      </c>
-      <c r="S26">
-        <f>B26/H26</f>
-        <v>59.418085116501643</v>
-      </c>
-      <c r="T26">
-        <f>B26/I26</f>
-        <v>80.133428952881147</v>
+        <f t="shared" si="18"/>
+        <v>31.448761258428036</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="18"/>
+        <v>59.418085115991005</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="18"/>
+        <v>80.133428952192489</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -6327,36 +6327,36 @@
         <v>51</v>
       </c>
       <c r="M27" s="2">
-        <f>B27/B27</f>
-        <v>1</v>
+        <f t="shared" ref="M27:M33" si="19">69.81625/B27</f>
+        <v>0.99937374749642049</v>
       </c>
       <c r="N27" s="2">
-        <f>B27/C27</f>
-        <v>1.9977123248641495</v>
+        <f t="shared" ref="N27:N33" si="20">69.81625/C27</f>
+        <v>1.9964612525192718</v>
       </c>
       <c r="O27" s="2">
-        <f>B27/D27</f>
-        <v>3.9882965817625817</v>
+        <f t="shared" ref="O27:O33" si="21">69.81625/D27</f>
+        <v>3.9857989010432355</v>
       </c>
       <c r="P27" s="2">
-        <f>B27/E27</f>
-        <v>7.9454080182040263</v>
+        <f t="shared" ref="P27:P33" si="22">69.81625/E27</f>
+        <v>7.940432186540666</v>
       </c>
       <c r="Q27" s="2">
-        <f>B27/F27</f>
-        <v>15.805429862836172</v>
+        <f t="shared" ref="Q27:Q33" si="23">69.81625/F27</f>
+        <v>15.795531672814421</v>
       </c>
       <c r="R27" s="2">
-        <f>B27/G27</f>
-        <v>30.489907252627354</v>
-      </c>
-      <c r="S27">
-        <f>B27/H27</f>
-        <v>58.03530631789657</v>
-      </c>
-      <c r="T27">
-        <f>B27/I27</f>
-        <v>95.209540077404014</v>
+        <f t="shared" ref="R27:R33" si="24">69.81625/G27</f>
+        <v>30.47081287187649</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" ref="S27:S33" si="25">69.81625/H27</f>
+        <v>57.998961562018984</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" ref="T27:T33" si="26">69.81625/I27</f>
+        <v>95.149914864565886</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -6391,36 +6391,36 @@
         <v>52</v>
       </c>
       <c r="M28" s="2">
-        <f>B28/B28</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99987468672108792</v>
       </c>
       <c r="N28" s="2">
-        <f>B28/C28</f>
-        <v>1.9968542217802066</v>
+        <f t="shared" si="20"/>
+        <v>1.9966039894301657</v>
       </c>
       <c r="O28" s="2">
-        <f>B28/D28</f>
-        <v>3.9880059969843651</v>
+        <f t="shared" si="21"/>
+        <v>3.9875062468765616</v>
       </c>
       <c r="P28" s="2">
-        <f>B28/E28</f>
-        <v>7.9583986320954052</v>
+        <f t="shared" si="22"/>
+        <v>7.9574013390679283</v>
       </c>
       <c r="Q28" s="2">
-        <f>B28/F28</f>
-        <v>15.842314236308914</v>
+        <f t="shared" si="23"/>
+        <v>15.840328983966407</v>
       </c>
       <c r="R28" s="2">
-        <f>B28/G28</f>
-        <v>31.34680134610376</v>
-      </c>
-      <c r="S28">
-        <f>B28/H28</f>
-        <v>58.799999999747364</v>
-      </c>
-      <c r="T28">
-        <f>B28/I28</f>
-        <v>80.374100727683214</v>
+        <f t="shared" si="24"/>
+        <v>31.342873175643671</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="25"/>
+        <v>58.792631578947365</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="26"/>
+        <v>80.364028785581411</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -6455,36 +6455,36 @@
         <v>53</v>
       </c>
       <c r="M29" s="2">
-        <f>B29/B29</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99937374749069829</v>
       </c>
       <c r="N29" s="2">
-        <f>B29/C29</f>
-        <v>1.9960712882517571</v>
+        <f t="shared" si="20"/>
+        <v>1.9948212435987442</v>
       </c>
       <c r="O29" s="2">
-        <f>B29/D29</f>
-        <v>3.9811939024185055</v>
+        <f t="shared" si="21"/>
+        <v>3.978700669747099</v>
       </c>
       <c r="P29" s="2">
-        <f>B29/E29</f>
-        <v>7.934128335639012</v>
+        <f t="shared" si="22"/>
+        <v>7.9291595678596956</v>
       </c>
       <c r="Q29" s="2">
-        <f>B29/F29</f>
-        <v>15.729805797453539</v>
+        <f t="shared" si="23"/>
+        <v>15.719954967102055</v>
       </c>
       <c r="R29" s="2">
-        <f>B29/G29</f>
-        <v>30.877348063837925</v>
-      </c>
-      <c r="S29">
-        <f>B29/H29</f>
-        <v>57.7355371922392</v>
-      </c>
-      <c r="T29">
-        <f>B29/I29</f>
-        <v>76.980716236384524</v>
+        <f t="shared" si="24"/>
+        <v>30.858011047132361</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="25"/>
+        <v>57.699380167196672</v>
+      </c>
+      <c r="T29" s="2">
+        <f>69.81625/I29</f>
+        <v>76.932506869673645</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -6519,36 +6519,36 @@
         <v>54</v>
       </c>
       <c r="M30" s="2">
-        <f>B30/B30</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99991048730996424</v>
       </c>
       <c r="N30" s="2">
-        <f>B30/C30</f>
-        <v>1.9963545389449711</v>
+        <f t="shared" si="20"/>
+        <v>1.996175839879925</v>
       </c>
       <c r="O30" s="2">
-        <f>B30/D30</f>
-        <v>3.9850181920245693</v>
+        <f t="shared" si="21"/>
+        <v>3.9846614823263597</v>
       </c>
       <c r="P30" s="2">
-        <f>B30/E30</f>
-        <v>7.959247648916314</v>
+        <f t="shared" si="22"/>
+        <v>7.958535195248599</v>
       </c>
       <c r="Q30" s="2">
-        <f>B30/F30</f>
-        <v>15.846241134706384</v>
+        <f t="shared" si="23"/>
+        <v>15.844822695035461</v>
       </c>
       <c r="R30" s="2">
-        <f>B30/G30</f>
-        <v>31.416197973042774</v>
-      </c>
-      <c r="S30">
-        <f>B30/H30</f>
-        <v>59.423404240988461</v>
-      </c>
-      <c r="T30">
-        <f>B30/I30</f>
-        <v>79.911301920939039</v>
+        <f t="shared" si="24"/>
+        <v>31.41338582465151</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="25"/>
+        <v>59.41808509222377</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="26"/>
+        <v>79.904148845339833</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -6583,36 +6583,36 @@
         <v>55</v>
       </c>
       <c r="M31" s="2">
-        <f>B31/B31</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99991048730423604</v>
       </c>
       <c r="N31" s="2">
-        <f>B31/C31</f>
-        <v>1.9970682874908325</v>
+        <f t="shared" si="20"/>
+        <v>1.9968895245247944</v>
       </c>
       <c r="O31" s="2">
-        <f>B31/D31</f>
-        <v>3.9847339135511479</v>
+        <f t="shared" si="21"/>
+        <v>3.9843772292766437</v>
       </c>
       <c r="P31" s="2">
-        <f>B31/E31</f>
-        <v>7.9603819294226827</v>
+        <f t="shared" si="22"/>
+        <v>7.9596693741768698</v>
       </c>
       <c r="Q31" s="2">
-        <f>B31/F31</f>
-        <v>15.859738783674022</v>
+        <f t="shared" si="23"/>
+        <v>15.858319135701382</v>
       </c>
       <c r="R31" s="2">
-        <f>B31/G31</f>
-        <v>31.433877322267204</v>
-      </c>
-      <c r="S31">
-        <f>B31/H31</f>
-        <v>58.984160491087692</v>
-      </c>
-      <c r="T31">
-        <f>B31/I31</f>
-        <v>79.456614496001094</v>
+        <f t="shared" si="24"/>
+        <v>31.431063591169774</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="25"/>
+        <v>58.978880659874761</v>
+      </c>
+      <c r="T31" s="2">
+        <f>69.81625/I31</f>
+        <v>79.449502120241277</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -6647,36 +6647,36 @@
         <v>56</v>
       </c>
       <c r="M32" s="2">
-        <f>B32/B32</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99989258668576297</v>
       </c>
       <c r="N32" s="2">
-        <f>B32/C32</f>
-        <v>1.9983900973268411</v>
+        <f t="shared" si="20"/>
+        <v>1.9981754436233488</v>
       </c>
       <c r="O32" s="2">
-        <f>B32/D32</f>
-        <v>3.9902135867532271</v>
+        <f t="shared" si="21"/>
+        <v>3.9897849846873603</v>
       </c>
       <c r="P32" s="2">
-        <f>B32/E32</f>
-        <v>7.959390139722812</v>
+        <f t="shared" si="22"/>
+        <v>7.958535195248599</v>
       </c>
       <c r="Q32" s="2">
-        <f>B32/F32</f>
-        <v>15.84203062898051</v>
+        <f t="shared" si="23"/>
+        <v>15.840328983966407</v>
       </c>
       <c r="R32" s="2">
-        <f>B32/G32</f>
-        <v>31.399100613562815</v>
-      </c>
-      <c r="S32">
-        <f>B32/H32</f>
-        <v>59.424468071286078</v>
-      </c>
-      <c r="T32">
-        <f>B32/I32</f>
-        <v>79.684736030734996</v>
+        <f t="shared" si="24"/>
+        <v>31.395727932101853</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="25"/>
+        <v>59.41808509222377</v>
+      </c>
+      <c r="T32" s="2">
+        <f>69.81625/I32</f>
+        <v>79.676176829143827</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -6711,36 +6711,36 @@
         <v>72</v>
       </c>
       <c r="M33" s="2">
-        <f>B33/B33</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0.99994629045688932</v>
       </c>
       <c r="N33" s="2">
-        <f>B33/C33</f>
-        <v>1.9969967823095658</v>
+        <f t="shared" si="20"/>
+        <v>1.9968895245247944</v>
       </c>
       <c r="O33" s="2">
-        <f>B33/D33</f>
-        <v>3.9840228245762281</v>
+        <f t="shared" si="21"/>
+        <v>3.9838088445305777</v>
       </c>
       <c r="P33" s="2">
-        <f>B33/E33</f>
-        <v>7.961231470939655</v>
+        <f t="shared" si="22"/>
+        <v>7.9608038768347527</v>
       </c>
       <c r="Q33" s="2">
-        <f>B33/F33</f>
-        <v>15.854669315776038</v>
+        <f t="shared" si="23"/>
+        <v>15.853817768730917</v>
       </c>
       <c r="R33" s="2">
-        <f>B33/G33</f>
-        <v>31.432751829909268</v>
-      </c>
-      <c r="S33">
-        <f>B33/H33</f>
-        <v>59.421276605608547</v>
-      </c>
-      <c r="T33">
-        <f>B33/I33</f>
-        <v>80.600288604077591</v>
+        <f t="shared" si="24"/>
+        <v>31.431063591169774</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="25"/>
+        <v>59.418085115991005</v>
+      </c>
+      <c r="T33" s="2">
+        <f>69.81625/I33</f>
+        <v>80.595959599402079</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -6855,35 +6855,35 @@
         <v>50</v>
       </c>
       <c r="M37" s="2">
-        <f>B37/B37</f>
+        <f>B37/6305003</f>
         <v>1</v>
       </c>
       <c r="N37" s="2">
-        <f>C37/B37</f>
+        <f>C37/6305003</f>
         <v>1.4711149225464286</v>
       </c>
       <c r="O37" s="2">
-        <f>D37/B37</f>
+        <f t="shared" ref="O37:T37" si="27">D37/6305003</f>
         <v>1.7900863806091765</v>
       </c>
       <c r="P37" s="2">
-        <f>E37/B37</f>
+        <f t="shared" si="27"/>
         <v>3.418296866789754</v>
       </c>
       <c r="Q37" s="2">
-        <f>F37/B37</f>
+        <f t="shared" si="27"/>
         <v>6.558663334498017</v>
       </c>
       <c r="R37" s="2">
-        <f>G37/B37</f>
+        <f t="shared" si="27"/>
         <v>11.968068373639156</v>
       </c>
-      <c r="S37">
-        <f>H37/B37</f>
+      <c r="S37" s="2">
+        <f>H37/6305003</f>
         <v>20.191421479101596</v>
       </c>
-      <c r="T37">
-        <f>I37/B37</f>
+      <c r="T37" s="2">
+        <f>I37/6305003</f>
         <v>30.2373029798717</v>
       </c>
     </row>
@@ -6919,36 +6919,36 @@
         <v>51</v>
       </c>
       <c r="M38" s="2">
-        <f>B38/B38</f>
-        <v>1</v>
+        <f t="shared" ref="M38:M44" si="28">B38/6305003</f>
+        <v>2.1742321137674319</v>
       </c>
       <c r="N38" s="2">
-        <f>C38/B38</f>
-        <v>1.8651951265415574</v>
+        <f t="shared" ref="N38:N44" si="29">C38/6305003</f>
+        <v>4.0553671425691631</v>
       </c>
       <c r="O38" s="2">
-        <f>D38/B38</f>
-        <v>2.6079387739321618</v>
+        <f t="shared" ref="O38:O44" si="30">D38/6305003</f>
+        <v>5.6702642330225697</v>
       </c>
       <c r="P38" s="2">
-        <f>E38/B38</f>
-        <v>5.0663249332168121</v>
+        <f t="shared" ref="P38:P44" si="31">E38/6305003</f>
+        <v>11.015366368580633</v>
       </c>
       <c r="Q38" s="2">
-        <f>F38/B38</f>
-        <v>10.620079745910214</v>
+        <f t="shared" ref="Q38:Q44" si="32">F38/6305003</f>
+        <v>23.090518434329056</v>
       </c>
       <c r="R38" s="2">
-        <f>G38/B38</f>
-        <v>13.063431043714356</v>
-      </c>
-      <c r="S38">
-        <f>H38/B38</f>
-        <v>20.455289184698007</v>
-      </c>
-      <c r="T38">
-        <f>I38/B38</f>
-        <v>21.908165202129474</v>
+        <f t="shared" ref="R38:R44" si="33">G38/6305003</f>
+        <v>28.402931291230153</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" ref="S38:S44" si="34">H38/6305003</f>
+        <v>44.474546641770033</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" ref="T38:T44" si="35">I38/6305003</f>
+        <v>47.633436336192069</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -6983,36 +6983,36 @@
         <v>52</v>
       </c>
       <c r="M39" s="2">
-        <f>B39/B39</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>1.0056543985783988</v>
       </c>
       <c r="N39" s="2">
-        <f>C39/B39</f>
-        <v>1.447018714473302</v>
+        <f t="shared" si="29"/>
+        <v>1.4552007350353362</v>
       </c>
       <c r="O39" s="2">
-        <f>D39/B39</f>
-        <v>1.4641324065309351</v>
+        <f t="shared" si="30"/>
+        <v>1.4724111947290113</v>
       </c>
       <c r="P39" s="2">
-        <f>E39/B39</f>
-        <v>2.9651357730606338</v>
+        <f t="shared" si="31"/>
+        <v>2.9819018325605873</v>
       </c>
       <c r="Q39" s="2">
-        <f>F39/B39</f>
-        <v>5.9162270958169296</v>
+        <f t="shared" si="32"/>
+        <v>5.9496798018970019</v>
       </c>
       <c r="R39" s="2">
-        <f>G39/B39</f>
-        <v>11.364488899725485</v>
-      </c>
-      <c r="S39">
-        <f>H39/B39</f>
-        <v>21.083573240236731</v>
-      </c>
-      <c r="T39">
-        <f>I39/B39</f>
-        <v>14.803677349371217</v>
+        <f t="shared" si="33"/>
+        <v>11.428748249604322</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="34"/>
+        <v>21.202788166793894</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="35"/>
+        <v>14.887383241530575</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -7047,36 +7047,36 @@
         <v>53</v>
       </c>
       <c r="M40" s="2">
-        <f>B40/B40</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>2.6134812306988593</v>
       </c>
       <c r="N40" s="2">
-        <f>C40/B40</f>
-        <v>0.97187347960223591</v>
+        <f t="shared" si="29"/>
+        <v>2.5399730975544341</v>
       </c>
       <c r="O40" s="2">
-        <f>D40/B40</f>
-        <v>1.1296165853067062</v>
+        <f t="shared" si="30"/>
+        <v>2.9522317435852132</v>
       </c>
       <c r="P40" s="2">
-        <f>E40/B40</f>
-        <v>1.6844585027788859</v>
+        <f t="shared" si="31"/>
+        <v>4.4023006809037204</v>
       </c>
       <c r="Q40" s="2">
-        <f>F40/B40</f>
-        <v>2.4457988153543084</v>
+        <f t="shared" si="32"/>
+        <v>6.3920492979939896</v>
       </c>
       <c r="R40" s="2">
-        <f>G40/B40</f>
-        <v>3.855061780226213</v>
-      </c>
-      <c r="S40">
-        <f>H40/B40</f>
-        <v>0.93100373121579572</v>
-      </c>
-      <c r="T40">
-        <f>I40/B40</f>
-        <v>9.7721344577654329E-2</v>
+        <f>G40/6305003</f>
+        <v>10.075131605805739</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="34"/>
+        <v>2.4331607772430877</v>
+      </c>
+      <c r="T40" s="2">
+        <f>I40/6305003</f>
+        <v>0.25539289989235531</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -7111,36 +7111,36 @@
         <v>54</v>
       </c>
       <c r="M41" s="2">
-        <f>B41/B41</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>2.577087433582506</v>
       </c>
       <c r="N41" s="2">
-        <f>C41/B41</f>
-        <v>1.0689234063064359</v>
+        <f t="shared" si="29"/>
+        <v>2.7547090778545229</v>
       </c>
       <c r="O41" s="2">
-        <f>D41/B41</f>
-        <v>1.1708644171440838</v>
+        <f t="shared" si="30"/>
+        <v>3.0174199758509235</v>
       </c>
       <c r="P41" s="2">
-        <f>E41/B41</f>
-        <v>2.21390255028389</v>
+        <f t="shared" si="31"/>
+        <v>5.7054204415128744</v>
       </c>
       <c r="Q41" s="2">
-        <f>F41/B41</f>
-        <v>4.332364056742561</v>
+        <f t="shared" si="32"/>
+        <v>11.16488096833578</v>
       </c>
       <c r="R41" s="2">
-        <f>G41/B41</f>
-        <v>8.1723594434061297</v>
-      </c>
-      <c r="S41">
-        <f>H41/B41</f>
-        <v>14.01652443443548</v>
-      </c>
-      <c r="T41">
-        <f>I41/B41</f>
-        <v>8.9834251610482756</v>
+        <f t="shared" si="33"/>
+        <v>21.060884824321256</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="34"/>
+        <v>36.12180898248581</v>
+      </c>
+      <c r="T41" s="2">
+        <f t="shared" si="35"/>
+        <v>23.151072093066411</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -7175,36 +7175,36 @@
         <v>55</v>
       </c>
       <c r="M42" s="2">
-        <f>B42/B42</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>0.99931181634647914</v>
       </c>
       <c r="N42" s="2">
-        <f>C42/B42</f>
-        <v>1.5646958796723647</v>
+        <f t="shared" si="29"/>
+        <v>1.5636190815452427</v>
       </c>
       <c r="O42" s="2">
-        <f>D42/B42</f>
-        <v>1.7111706004319545</v>
+        <f t="shared" si="30"/>
+        <v>1.7099930007963517</v>
       </c>
       <c r="P42" s="2">
-        <f>E42/B42</f>
-        <v>3.2352925025044978</v>
+        <f t="shared" si="31"/>
+        <v>3.2330660270899156</v>
       </c>
       <c r="Q42" s="2">
-        <f>F42/B42</f>
-        <v>6.1127536716765087</v>
+        <f t="shared" si="32"/>
+        <v>6.1085469745216612</v>
       </c>
       <c r="R42" s="2">
-        <f>G42/B42</f>
-        <v>11.109236105908838</v>
-      </c>
-      <c r="S42">
-        <f>H42/B42</f>
-        <v>16.642098832757945</v>
-      </c>
-      <c r="T42">
-        <f>I42/B42</f>
-        <v>26.766360815304544</v>
+        <f t="shared" si="33"/>
+        <v>11.101590911217647</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="34"/>
+        <v>16.630646012380961</v>
+      </c>
+      <c r="T42" s="2">
+        <f t="shared" si="35"/>
+        <v>26.747940643327212</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -7239,36 +7239,36 @@
         <v>56</v>
       </c>
       <c r="M43" s="2">
-        <f>B43/B43</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>1.7791948711206005</v>
       </c>
       <c r="N43" s="2">
-        <f>C43/B43</f>
-        <v>1.4879305077658074</v>
+        <f t="shared" si="29"/>
+        <v>2.6473183280007957</v>
       </c>
       <c r="O43" s="2">
-        <f>D43/B43</f>
-        <v>2.9849839928920292</v>
+        <f t="shared" si="30"/>
+        <v>5.3108682105305896</v>
       </c>
       <c r="P43" s="2">
-        <f>E43/B43</f>
-        <v>5.793203747356106</v>
+        <f t="shared" si="31"/>
+        <v>10.307238394652627</v>
       </c>
       <c r="Q43" s="2">
-        <f>F43/B43</f>
-        <v>11.131562711465827</v>
+        <f t="shared" si="32"/>
+        <v>19.805219283797328</v>
       </c>
       <c r="R43" s="2">
-        <f>G43/B43</f>
-        <v>19.527328327076479</v>
-      </c>
-      <c r="S43">
-        <f>H43/B43</f>
-        <v>8.3289219331120137</v>
-      </c>
-      <c r="T43">
-        <f>I43/B43</f>
-        <v>5.0291338903454488</v>
+        <f t="shared" si="33"/>
+        <v>34.74292240622249</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="34"/>
+        <v>14.818775185356772</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" si="35"/>
+        <v>8.947809223881416</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -7303,36 +7303,36 @@
         <v>72</v>
       </c>
       <c r="M44" s="2">
-        <f>B44/B44</f>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>2.2994482318247904</v>
       </c>
       <c r="N44" s="2">
-        <f>C44/B44</f>
-        <v>1.0873051838498311</v>
+        <f t="shared" si="29"/>
+        <v>2.5002019824574231</v>
       </c>
       <c r="O44" s="2">
-        <f>D44/B44</f>
-        <v>1.2788793068960826</v>
+        <f t="shared" si="30"/>
+        <v>2.9407167609595111</v>
       </c>
       <c r="P44" s="2">
-        <f>E44/B44</f>
-        <v>2.3139088985067486</v>
+        <f t="shared" si="31"/>
+        <v>5.3207137252749916</v>
       </c>
       <c r="Q44" s="2">
-        <f>F44/B44</f>
-        <v>4.8782144716509031</v>
+        <f t="shared" si="32"/>
+        <v>11.217201641299773</v>
       </c>
       <c r="R44" s="2">
-        <f>G44/B44</f>
-        <v>9.2228584466797834</v>
-      </c>
-      <c r="S44">
-        <f>H44/B44</f>
-        <v>16.65113855484346</v>
-      </c>
-      <c r="T44">
-        <f>I44/B44</f>
-        <v>28.845568583534256</v>
+        <f t="shared" si="33"/>
+        <v>21.20748554758816</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="34"/>
+        <v>38.288431107804392</v>
+      </c>
+      <c r="T44" s="2">
+        <f>I44/6305003</f>
+        <v>66.328891675388576</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">

--- a/paper/data/scalobility/8node-scalobility-20201126.xlsx
+++ b/paper/data/scalobility/8node-scalobility-20201126.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492FADDA-E52A-584F-8D95-8F312B4FF72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FED3A-8A09-2E4E-979C-A2377391FEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{3A2DC044-6BB7-684C-8FBF-8D134127710A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="74">
   <si>
     <t>blackscholes</t>
   </si>
@@ -255,12 +255,15 @@
   <si>
     <t>mimalloc</t>
   </si>
+  <si>
+    <t>cache-scratch-more repeats</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,8 +344,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,6 +398,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4931,10 +4950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D94CDA-0228-0544-A979-BC3A7DF19415}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="J37" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5039,7 +5058,7 @@
         <v>0.98320598783223689</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" ref="O2:T2" si="0">78.8162499997/D2</f>
+        <f t="shared" ref="O2:R2" si="0">78.8162499997/D2</f>
         <v>1.3362649938399609</v>
       </c>
       <c r="P2" s="2">
@@ -5115,7 +5134,7 @@
         <v>12.565364686217123</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R9" si="6">78.8162499997/G3</f>
+        <f t="shared" ref="R3:R8" si="6">78.8162499997/G3</f>
         <v>17.31749519348611</v>
       </c>
       <c r="S3" s="2">
@@ -5379,7 +5398,7 @@
         <v>7.6613608743721207</v>
       </c>
       <c r="T7" s="2">
-        <f t="shared" ref="T3:T9" si="8">78.8162499997/I7</f>
+        <f t="shared" ref="T7:T9" si="8">78.8162499997/I7</f>
         <v>7.9572185762373682</v>
       </c>
     </row>
@@ -5559,570 +5578,570 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="17">
         <v>3.51999999955</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="17">
         <v>1.7749999999099999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="17">
         <v>0.91124999988800004</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="17">
         <v>0.46999999973899997</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="17">
         <v>0.24625000031700001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="17">
         <v>0.155000000261</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="17">
         <v>0.14749999996300001</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="17">
         <f>7/B14</f>
         <v>1</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="17">
         <f>7/C14</f>
         <v>1.9886363638905926</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" ref="O14:T14" si="9">7/D14</f>
+      <c r="O14" s="17">
+        <f t="shared" ref="O14:R14" si="9">7/D14</f>
         <v>3.9436619720309465</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="17">
         <f t="shared" si="9"/>
         <v>7.681755830848128</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="17">
         <f t="shared" si="9"/>
         <v>14.893617029547308</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="17">
         <f t="shared" si="9"/>
         <v>28.426395902492722</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="17">
         <f>7/H14</f>
         <v>45.161290246534861</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="17">
         <f>7/I14</f>
         <v>47.457627130548694</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="17">
         <v>7.04000000004</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="17">
         <v>3.5499999998099998</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="17">
         <v>1.8062499994400001</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="17">
         <v>0.93875000020499999</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="17">
         <v>0.49124999996300001</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="17">
         <v>0.33250000001899999</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="17">
         <v>0.23375000013</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="17">
         <v>0.20999999996300001</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="17">
         <f t="shared" ref="M15:M21" si="10">7/B15</f>
         <v>0.99431818181253229</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="17">
         <f t="shared" ref="N15:N21" si="11">7/C15</f>
         <v>1.9718309860210277</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="17">
         <f t="shared" ref="O15:O21" si="12">7/D15</f>
         <v>3.875432527153075</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="17">
         <f t="shared" ref="P15:P21" si="13">7/E15</f>
         <v>7.4567243658816205</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="17">
         <f t="shared" ref="Q15:Q21" si="14">7/F15</f>
         <v>14.249363868757714</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="17">
         <f t="shared" ref="R15:R21" si="15">7/G15</f>
         <v>21.052631577744361</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="17">
         <f t="shared" ref="S15:S21" si="16">7/H15</f>
         <v>29.946524047516373</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="17">
         <f>7/I15</f>
         <v>33.333333339206348</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="17">
         <v>7.0049999998899999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="17">
         <v>3.5275000003199999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="17">
         <v>1.78125000047</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="17">
         <v>0.91499999957199996</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="17">
         <v>0.47250000014900001</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="17">
         <v>0.25000000046600002</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="17">
         <v>0.17249999987</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="17">
         <v>0.13250000029799999</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="17">
         <f t="shared" si="10"/>
         <v>0.9992862241413164</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="17">
         <f t="shared" si="11"/>
         <v>1.984408220939756</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="17">
         <f t="shared" si="12"/>
         <v>3.9298245603665865</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="17">
         <f t="shared" si="13"/>
         <v>7.650273227622205</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="17">
         <f t="shared" si="14"/>
         <v>14.814814810143053</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="17">
         <f t="shared" si="15"/>
         <v>27.999999947808</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="17">
         <f t="shared" si="16"/>
         <v>40.579710175509348</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="17">
         <f>7/I16</f>
         <v>52.830188560427203</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="17">
         <v>7.0400000005000001</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="17">
         <v>3.5587499993899998</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="17">
         <v>1.8149999999399999</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="17">
         <v>0.92500000027899998</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="17">
         <v>0.48500000033500001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="17">
         <v>0.25499999988799998</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="17">
         <v>0.1875</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="17">
         <v>0.14749999996300001</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="17">
         <f t="shared" si="10"/>
         <v>0.99431818174756259</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="17">
         <f t="shared" si="11"/>
         <v>1.9669827892377547</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="17">
         <f t="shared" si="12"/>
         <v>3.856749311422262</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="17">
         <f t="shared" si="13"/>
         <v>7.5675675652850254</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="17">
         <f t="shared" si="14"/>
         <v>14.43298968075247</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="17">
         <f t="shared" si="15"/>
         <v>27.450980404213766</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="17">
         <f t="shared" si="16"/>
         <v>37.333333333333336</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="17">
         <f>7/I17</f>
         <v>47.457627130548694</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="17">
         <v>7.0012500001999998</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="17">
         <v>3.5200000004800001</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="17">
         <v>1.7762500001099999</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="17">
         <v>0.91000000014899995</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="17">
         <v>0.473750000354</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="17">
         <v>0.24625000031700001</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="17">
         <v>0.15625000046599999</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="17">
         <v>0.136250000447</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="17">
         <f t="shared" si="10"/>
         <v>0.99982146042492925</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="17">
         <f t="shared" si="11"/>
         <v>1.988636363365186</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="17">
         <f t="shared" si="12"/>
         <v>3.9408866992633373</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="17">
         <f t="shared" si="13"/>
         <v>7.6923076910481827</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="17">
         <f t="shared" si="14"/>
         <v>14.775725582626688</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="17">
         <f t="shared" si="15"/>
         <v>28.426395902492722</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="17">
         <f t="shared" si="16"/>
         <v>44.799999866388482</v>
       </c>
-      <c r="T18" s="2">
-        <f t="shared" ref="T15:T21" si="17">7/I18</f>
+      <c r="T18" s="17">
+        <f t="shared" ref="T18:T21" si="17">7/I18</f>
         <v>51.376146620439357</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="17">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="17">
         <v>3.5187500002799998</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="17">
         <v>1.7762499996500001</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="17">
         <v>0.91000000014899995</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="17">
         <v>0.47250000014900001</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="17">
         <v>0.248750000261</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="17">
         <v>0.16500000003699999</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="17">
         <v>0.14125000033499999</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="17">
         <f t="shared" si="11"/>
         <v>1.9893428062360168</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="17">
         <f t="shared" si="12"/>
         <v>3.9408867002839183</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="17">
         <f t="shared" si="13"/>
         <v>7.6923076910481827</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="17">
         <f t="shared" si="14"/>
         <v>14.814814810143053</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="17">
         <f t="shared" si="15"/>
         <v>28.140703488061412</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="17">
         <f t="shared" si="16"/>
         <v>42.424242414729108</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="17">
         <f t="shared" si="17"/>
         <v>49.557522006359157</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="17">
         <v>7.0037499996800001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="17">
         <v>3.52249999996</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="17">
         <v>1.7774999998500001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="17">
         <v>0.913749999832</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="17">
         <v>0.476249999832</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="17">
         <v>0.25</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="17">
         <v>0.17625000001900001</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="17">
         <v>0.14249999960900001</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="17">
         <f t="shared" si="10"/>
         <v>0.99946457259608479</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="17">
         <f t="shared" si="11"/>
         <v>1.9872249822794859</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="17">
         <f t="shared" si="12"/>
         <v>3.9381153308527241</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="17">
         <f t="shared" si="13"/>
         <v>7.6607387154987734</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="17">
         <f t="shared" si="14"/>
         <v>14.698162734843656</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="17">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="17">
         <f t="shared" si="16"/>
         <v>39.716312052456111</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="17">
         <f>7/I20</f>
         <v>49.122807152329948</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="17">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="17">
         <v>3.51999999955</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="17">
         <v>1.7749999999099999</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="17">
         <v>0.91124999988800004</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="17">
         <v>0.47250000061500003</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="17">
         <v>0.24750000005600001</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="17">
         <v>0.17625000001900001</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="17">
         <v>0.13874999992500001</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="17">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="17">
         <f t="shared" si="11"/>
         <v>1.9886363638905926</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="17">
         <f t="shared" si="12"/>
         <v>3.9436619720309465</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="17">
         <f t="shared" si="13"/>
         <v>7.681755830848128</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="17">
         <f t="shared" si="14"/>
         <v>14.814814795532039</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="17">
         <f t="shared" si="15"/>
         <v>28.282828276428933</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="17">
         <f t="shared" si="16"/>
         <v>39.716312052456111</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="17">
         <f t="shared" si="17"/>
         <v>50.450450477720963</v>
       </c>
@@ -6355,7 +6374,7 @@
         <v>57.998961562018984</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" ref="T27:T33" si="26">69.81625/I27</f>
+        <f t="shared" ref="T27:T30" si="26">69.81625/I27</f>
         <v>95.149914864565886</v>
       </c>
     </row>
@@ -6863,7 +6882,7 @@
         <v>1.4711149225464286</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" ref="O37:T37" si="27">D37/6305003</f>
+        <f t="shared" ref="O37:R37" si="27">D37/6305003</f>
         <v>1.7900863806091765</v>
       </c>
       <c r="P37" s="2">
@@ -6947,7 +6966,7 @@
         <v>44.474546641770033</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" ref="T38:T44" si="35">I38/6305003</f>
+        <f t="shared" ref="T38:T43" si="35">I38/6305003</f>
         <v>47.633436336192069</v>
       </c>
     </row>
@@ -7344,6 +7363,664 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>69.806250000399999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>34.952500000100002</v>
+      </c>
+      <c r="D49" s="2">
+        <v>17.498749999800001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>8.7650000001299997</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4.3999999999100003</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2.22125000041</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.16374999983</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.88750000018599995</v>
+      </c>
+      <c r="L49" t="s">
+        <v>50</v>
+      </c>
+      <c r="M49" s="2">
+        <f>69.8062500004/B49</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" ref="N49:T49" si="36">69.8062500004/C49</f>
+        <v>1.9971747371489958</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="36"/>
+        <v>3.989213515319542</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="36"/>
+        <v>7.964204221262368</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" si="36"/>
+        <v>15.865056818597239</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="36"/>
+        <v>31.426561615088399</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="36"/>
+        <v>59.983888301265097</v>
+      </c>
+      <c r="T49" s="2">
+        <f>69.8062500004/I49</f>
+        <v>78.654929561431189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>69.849999999600001</v>
+      </c>
+      <c r="C50" s="2">
+        <v>34.963750000099999</v>
+      </c>
+      <c r="D50" s="2">
+        <v>17.515000000099999</v>
+      </c>
+      <c r="E50" s="2">
+        <v>8.7900000004999992</v>
+      </c>
+      <c r="F50" s="2">
+        <v>4.4187499997200002</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2.2924999995199999</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1.2174999998</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.72250000014899995</v>
+      </c>
+      <c r="L50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" ref="M50:M56" si="37">69.8062500004/B50</f>
+        <v>0.99937365784967425</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" ref="N50:N56" si="38">69.8062500004/C50</f>
+        <v>1.996532122561234</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" ref="O50:O56" si="39">69.8062500004/D50</f>
+        <v>3.9855124179275738</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" ref="P50:P56" si="40">69.8062500004/E50</f>
+        <v>7.9415529006176593</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" ref="Q50:Q56" si="41">69.8062500004/F50</f>
+        <v>15.797736917640364</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" ref="R50:R56" si="42">69.8062500004/G50</f>
+        <v>30.449836429668885</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" ref="S50:S56" si="43">69.8062500004/H50</f>
+        <v>57.335728962519212</v>
+      </c>
+      <c r="T50" s="2">
+        <f t="shared" ref="T50:T56" si="44">69.8062500004/I50</f>
+        <v>96.617647039451867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>69.816250000099998</v>
+      </c>
+      <c r="C51" s="2">
+        <v>34.961250000200003</v>
+      </c>
+      <c r="D51" s="2">
+        <v>17.518750000299999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>8.7712500002200002</v>
+      </c>
+      <c r="F51" s="2">
+        <v>4.40625</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2.2250000005600001</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1.15625</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.87374999979500001</v>
+      </c>
+      <c r="L51" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99985676687447422</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9966748900568674</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="39"/>
+        <v>3.9846592935685825</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="40"/>
+        <v>7.9585292858656542</v>
+      </c>
+      <c r="Q51" s="2">
+        <f t="shared" si="41"/>
+        <v>15.842553191580141</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="42"/>
+        <v>31.373595497901473</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="43"/>
+        <v>60.372972973318916</v>
+      </c>
+      <c r="T51" s="2">
+        <f t="shared" si="44"/>
+        <v>79.892703881863241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2">
+        <v>69.848749999899994</v>
+      </c>
+      <c r="C52" s="2">
+        <v>34.988750000000003</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17.5375000001</v>
+      </c>
+      <c r="E52" s="2">
+        <v>8.8037499999600008</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4.4399999994800003</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2.2600000002399998</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1.1875</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.91124999988800004</v>
+      </c>
+      <c r="L52" t="s">
+        <v>53</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99939154244707229</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9951055696588187</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="39"/>
+        <v>3.980399144690062</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="40"/>
+        <v>7.9291495102333842</v>
+      </c>
+      <c r="Q52" s="2">
+        <f t="shared" si="41"/>
+        <v>15.722128380309798</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="42"/>
+        <v>30.887721235834935</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="43"/>
+        <v>58.784210526652629</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" si="44"/>
+        <v>76.604938281459255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>69.811249999799998</v>
+      </c>
+      <c r="C53" s="2">
+        <v>34.953749999899998</v>
+      </c>
+      <c r="D53" s="2">
+        <v>17.52</v>
+      </c>
+      <c r="E53" s="2">
+        <v>8.7687499998099998</v>
+      </c>
+      <c r="F53" s="2">
+        <v>4.40625000047</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2.2224999996800001</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1.1537500000600001</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.87875000014899995</v>
+      </c>
+      <c r="L53" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99992837831438319</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9971033151121043</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="39"/>
+        <v>3.9843750000228311</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="40"/>
+        <v>7.9607982895980101</v>
+      </c>
+      <c r="Q53" s="2">
+        <f t="shared" si="41"/>
+        <v>15.842553189890269</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="42"/>
+        <v>31.408886393903639</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="43"/>
+        <v>60.503791979865454</v>
+      </c>
+      <c r="T53" s="2">
+        <f t="shared" si="44"/>
+        <v>79.438122319844922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>69.810000000100004</v>
+      </c>
+      <c r="C54" s="2">
+        <v>34.951250000400002</v>
+      </c>
+      <c r="D54" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8.7650000001299997</v>
+      </c>
+      <c r="F54" s="2">
+        <v>4.4037500000599996</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2.2250000000900001</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1.1600000001499999</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.88875000039100005</v>
+      </c>
+      <c r="L54" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99994628277180919</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9972461642888621</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="39"/>
+        <v>3.9889285714514284</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="40"/>
+        <v>7.964204221262368</v>
+      </c>
+      <c r="Q54" s="2">
+        <f t="shared" si="41"/>
+        <v>15.851546976883091</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="42"/>
+        <v>31.373595504528705</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="43"/>
+        <v>60.177801716701147</v>
+      </c>
+      <c r="T54" s="2">
+        <f t="shared" si="44"/>
+        <v>78.544303763363345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>69.811249999799998</v>
+      </c>
+      <c r="C55" s="2">
+        <v>34.932500000099999</v>
+      </c>
+      <c r="D55" s="2">
+        <v>17.493750000399999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>8.7687500002800007</v>
+      </c>
+      <c r="F55" s="2">
+        <v>4.4050000002600003</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2.2237500003499999</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1.17749999976</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.89999999990699997</v>
+      </c>
+      <c r="L55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99992837831438319</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9983181850769389</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="39"/>
+        <v>3.9903536976808209</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="40"/>
+        <v>7.9607982891713149</v>
+      </c>
+      <c r="Q55" s="2">
+        <f t="shared" si="41"/>
+        <v>15.847048807327981</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="42"/>
+        <v>31.391231023906947</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="43"/>
+        <v>59.283439502868809</v>
+      </c>
+      <c r="T55" s="2">
+        <f t="shared" si="44"/>
+        <v>77.562500008459239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2">
+        <v>69.807500000100006</v>
+      </c>
+      <c r="C56" s="2">
+        <v>34.953749999899998</v>
+      </c>
+      <c r="D56" s="2">
+        <v>17.5249999999</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8.7625000001900002</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4.4037500000599996</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2.2199999997400002</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1.1575000002</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.88499999977599997</v>
+      </c>
+      <c r="L56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="37"/>
+        <v>0.99998209361888046</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="38"/>
+        <v>1.9971033151121043</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="39"/>
+        <v>3.983238231143984</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="40"/>
+        <v>7.966476462069771</v>
+      </c>
+      <c r="Q56" s="2">
+        <f t="shared" si="41"/>
+        <v>15.851546976883091</v>
+      </c>
+      <c r="R56" s="2">
+        <f t="shared" si="42"/>
+        <v>31.444256760619595</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="43"/>
+        <v>60.307775367894983</v>
+      </c>
+      <c r="T56" s="2">
+        <f t="shared" si="44"/>
+        <v>78.877118664484158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
